--- a/Documents/Logboeken/Logboek Template.xlsx
+++ b/Documents/Logboeken/Logboek Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\!FIFA\project_fifa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\website\fifa\project_fifa\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,7 +87,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Keven nunes da silva, Joey Oonincx, Ben Smit, Noël van Bijnen</t>
+      <t>Keven nunes da silva, Joey Oonincx, Ben Smits, Noël van Bijnen</t>
     </r>
   </si>
 </sst>
